--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjrdu\Desktop\HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjrdu\Desktop\Coding\Web\HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E3AE551-5ED7-4A7C-BB41-76F4A2479682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F443911-A6E4-45A2-AE75-FACBF6FEF81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{208B9F45-ACA6-4FE5-9A4B-750A5D152D4B}"/>
+    <workbookView xWindow="29970" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{208B9F45-ACA6-4FE5-9A4B-750A5D152D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,16 +506,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sejoing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Busan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dangjin</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sejong</t>
   </si>
 </sst>
 </file>
@@ -883,7 +882,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E319" sqref="E319"/>
+      <selection pane="bottomLeft" activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4145,7 +4144,7 @@
         <v>117</v>
       </c>
       <c r="D209" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4159,7 +4158,7 @@
         <v>117</v>
       </c>
       <c r="D210" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4173,7 +4172,7 @@
         <v>117</v>
       </c>
       <c r="D211" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4187,7 +4186,7 @@
         <v>117</v>
       </c>
       <c r="D212" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4201,7 +4200,7 @@
         <v>117</v>
       </c>
       <c r="D213" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4215,7 +4214,7 @@
         <v>117</v>
       </c>
       <c r="D214" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4229,7 +4228,7 @@
         <v>117</v>
       </c>
       <c r="D215" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4243,7 +4242,7 @@
         <v>117</v>
       </c>
       <c r="D216" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4257,7 +4256,7 @@
         <v>117</v>
       </c>
       <c r="D217" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4271,7 +4270,7 @@
         <v>117</v>
       </c>
       <c r="D218" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4285,7 +4284,7 @@
         <v>117</v>
       </c>
       <c r="D219" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4299,7 +4298,7 @@
         <v>117</v>
       </c>
       <c r="D220" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4313,7 +4312,7 @@
         <v>117</v>
       </c>
       <c r="D221" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4327,7 +4326,7 @@
         <v>117</v>
       </c>
       <c r="D222" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4341,7 +4340,7 @@
         <v>117</v>
       </c>
       <c r="D223" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4355,7 +4354,7 @@
         <v>117</v>
       </c>
       <c r="D224" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4369,7 +4368,7 @@
         <v>117</v>
       </c>
       <c r="D225" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4416,7 +4415,7 @@
         <v>117</v>
       </c>
       <c r="D229" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4430,7 +4429,7 @@
         <v>117</v>
       </c>
       <c r="D230" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4444,7 +4443,7 @@
         <v>117</v>
       </c>
       <c r="D231" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4491,7 +4490,7 @@
         <v>117</v>
       </c>
       <c r="D235" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4505,7 +4504,7 @@
         <v>117</v>
       </c>
       <c r="D236" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4519,7 +4518,7 @@
         <v>117</v>
       </c>
       <c r="D237" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4566,7 +4565,7 @@
         <v>117</v>
       </c>
       <c r="D241" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4580,7 +4579,7 @@
         <v>117</v>
       </c>
       <c r="D242" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4594,7 +4593,7 @@
         <v>117</v>
       </c>
       <c r="D243" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4608,7 +4607,7 @@
         <v>117</v>
       </c>
       <c r="D244" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4622,7 +4621,7 @@
         <v>117</v>
       </c>
       <c r="D245" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4636,7 +4635,7 @@
         <v>117</v>
       </c>
       <c r="D246" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4650,7 +4649,7 @@
         <v>117</v>
       </c>
       <c r="D247" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4697,7 +4696,7 @@
         <v>117</v>
       </c>
       <c r="D251" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4711,7 +4710,7 @@
         <v>117</v>
       </c>
       <c r="D252" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4725,7 +4724,7 @@
         <v>117</v>
       </c>
       <c r="D253" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4739,7 +4738,7 @@
         <v>117</v>
       </c>
       <c r="D254" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4753,7 +4752,7 @@
         <v>117</v>
       </c>
       <c r="D255" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4767,7 +4766,7 @@
         <v>117</v>
       </c>
       <c r="D256" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4781,7 +4780,7 @@
         <v>117</v>
       </c>
       <c r="D257" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -4795,7 +4794,7 @@
         <v>117</v>
       </c>
       <c r="D258" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -4809,7 +4808,7 @@
         <v>117</v>
       </c>
       <c r="D259" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -4900,7 +4899,7 @@
         <v>117</v>
       </c>
       <c r="D267" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -4914,7 +4913,7 @@
         <v>117</v>
       </c>
       <c r="D268" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -4928,7 +4927,7 @@
         <v>117</v>
       </c>
       <c r="D269" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -4953,7 +4952,7 @@
         <v>117</v>
       </c>
       <c r="D271" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -4967,7 +4966,7 @@
         <v>117</v>
       </c>
       <c r="D272" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -4992,7 +4991,7 @@
         <v>117</v>
       </c>
       <c r="D274" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5017,7 +5016,7 @@
         <v>117</v>
       </c>
       <c r="D276" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5053,7 +5052,7 @@
         <v>117</v>
       </c>
       <c r="D279" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5078,7 +5077,7 @@
         <v>117</v>
       </c>
       <c r="D281" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5103,7 +5102,7 @@
         <v>117</v>
       </c>
       <c r="D283" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5227,7 +5226,7 @@
         <v>117</v>
       </c>
       <c r="D294" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5241,7 +5240,7 @@
         <v>117</v>
       </c>
       <c r="D295" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5255,7 +5254,7 @@
         <v>117</v>
       </c>
       <c r="D296" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5269,7 +5268,7 @@
         <v>117</v>
       </c>
       <c r="D297" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5283,7 +5282,7 @@
         <v>117</v>
       </c>
       <c r="D298" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5297,7 +5296,7 @@
         <v>117</v>
       </c>
       <c r="D299" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5311,7 +5310,7 @@
         <v>117</v>
       </c>
       <c r="D300" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5325,7 +5324,7 @@
         <v>117</v>
       </c>
       <c r="D301" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5339,7 +5338,7 @@
         <v>117</v>
       </c>
       <c r="D302" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5353,7 +5352,7 @@
         <v>117</v>
       </c>
       <c r="D303" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5367,7 +5366,7 @@
         <v>117</v>
       </c>
       <c r="D304" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5381,7 +5380,7 @@
         <v>117</v>
       </c>
       <c r="D305" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5395,7 +5394,7 @@
         <v>117</v>
       </c>
       <c r="D306" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5409,7 +5408,7 @@
         <v>117</v>
       </c>
       <c r="D307" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5423,7 +5422,7 @@
         <v>117</v>
       </c>
       <c r="D308" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5437,7 +5436,7 @@
         <v>117</v>
       </c>
       <c r="D309" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5451,7 +5450,7 @@
         <v>117</v>
       </c>
       <c r="D310" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5476,7 +5475,7 @@
         <v>117</v>
       </c>
       <c r="D312" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5490,7 +5489,7 @@
         <v>117</v>
       </c>
       <c r="D313" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5504,7 +5503,7 @@
         <v>117</v>
       </c>
       <c r="D314" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5529,7 +5528,7 @@
         <v>117</v>
       </c>
       <c r="D316" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5543,7 +5542,7 @@
         <v>117</v>
       </c>
       <c r="D317" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
